--- a/biology/Histoire de la zoologie et de la botanique/Anatoli_Savilov/Anatoli_Savilov.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Anatoli_Savilov/Anatoli_Savilov.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anatoli Ivanovitch Savilov (en russe : Анатолий Иванович Савилов), né en 1913 et mort en 1969, était un biologiste marin et océanographe russe.
  Portail de l’histoire de la zoologie et de la botanique   Portail de la zoologie   Portail de la biologie marine                   </t>
